--- a/src/Skull-projections/Original Datasets/158 supraorb.xlsx
+++ b/src/Skull-projections/Original Datasets/158 supraorb.xlsx
@@ -5,23 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/exanvub/supraorbital-greateroccipital-nerves/Skull-projections/Original Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/exanvub/supraorbital-greateroccipital-nerves/src/Skull-projections/Original Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_8F2DF67BF7AA61FCC8E2BC755628950BEEA519A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243946E3-2961-A646-94A6-6502D186645D}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="11_8F2DF67BF7AA61FCC8E2BC755628950BEEA519A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F28DF91-4145-FF47-9356-5D22A181585B}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="760" windowWidth="29960" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="1160" windowWidth="14060" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -176,7 +187,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,12 +272,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -281,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -297,7 +302,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -314,6 +318,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -616,7 +624,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -664,13 +672,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>199.61699999999999</v>
+        <v>56.735599999999998</v>
       </c>
       <c r="D2">
-        <v>-298.80189999999999</v>
+        <v>-89.956800000000001</v>
       </c>
       <c r="E2">
-        <v>257.88740000000001</v>
+        <v>-116.9406</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -679,13 +687,13 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>200.8502</v>
+        <v>56.735599999999998</v>
       </c>
       <c r="I2">
-        <v>-299.01639999999998</v>
+        <v>-89.956800000000001</v>
       </c>
       <c r="J2">
-        <v>257.73509999999999</v>
+        <v>-116.9406</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -696,13 +704,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>163.46190000000001</v>
+        <v>-58.738799999999998</v>
       </c>
       <c r="D3">
-        <v>-203.62289999999999</v>
+        <v>-88.286000000000001</v>
       </c>
       <c r="E3">
-        <v>264.45830000000001</v>
+        <v>-125.75369999999999</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -711,13 +719,13 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>164.29730000000001</v>
+        <v>-58.738799999999998</v>
       </c>
       <c r="I3">
-        <v>-203.9066</v>
+        <v>-88.286000000000001</v>
       </c>
       <c r="J3">
-        <v>264.24329999999998</v>
+        <v>-125.75369999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -728,13 +736,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>188.05189999999999</v>
+        <v>0.68815000000000004</v>
       </c>
       <c r="D4">
-        <v>-249.43770000000001</v>
+        <v>-125.81100000000001</v>
       </c>
       <c r="E4">
-        <v>294.66419999999999</v>
+        <v>-121.08</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -743,13 +751,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>189.27619999999999</v>
+        <v>0.68815000000000004</v>
       </c>
       <c r="I4">
-        <v>-249.44380000000001</v>
+        <v>-125.81100000000001</v>
       </c>
       <c r="J4">
-        <v>294.59320000000002</v>
+        <v>-121.08</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -760,13 +768,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>174.77940000000001</v>
+        <v>-28.619700000000002</v>
       </c>
       <c r="D5">
-        <v>-282.65210000000002</v>
+        <v>-106.30500000000001</v>
       </c>
       <c r="E5">
-        <v>279.61660000000001</v>
+        <v>-102.437</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
@@ -775,13 +783,13 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>164.5668</v>
+        <v>25.509</v>
       </c>
       <c r="I5">
-        <v>-232.8081</v>
+        <v>-107.255</v>
       </c>
       <c r="J5">
-        <v>285.8972</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -792,13 +800,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>174.77940000000001</v>
+        <v>-28.619700000000002</v>
       </c>
       <c r="D6">
-        <v>-282.65210000000002</v>
+        <v>-106.30500000000001</v>
       </c>
       <c r="E6">
-        <v>279.61660000000001</v>
+        <v>-102.437</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
@@ -807,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>163.83670000000001</v>
+        <v>25.509</v>
       </c>
       <c r="I6">
-        <v>-232.16669999999999</v>
+        <v>-107.255</v>
       </c>
       <c r="J6">
-        <v>285.59620000000001</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -824,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>170.36170000000001</v>
+        <v>-28.305</v>
       </c>
       <c r="D7">
-        <v>-284.76229999999998</v>
+        <v>-111.476</v>
       </c>
       <c r="E7">
-        <v>288.08730000000003</v>
+        <v>-92.576999999999998</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>38</v>
@@ -839,13 +847,13 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>148.23159999999999</v>
+        <v>24.032</v>
       </c>
       <c r="I7">
-        <v>-234.80950000000001</v>
+        <v>-109.75</v>
       </c>
       <c r="J7">
-        <v>288.47620000000001</v>
+        <v>-90.08</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -856,13 +864,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>160.43100000000001</v>
+        <v>-26.169899999999998</v>
       </c>
       <c r="D8">
-        <v>-287.08499999999998</v>
+        <v>-107.5976</v>
       </c>
       <c r="E8">
-        <v>287.71100000000001</v>
+        <v>-79.554199999999994</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>16</v>
@@ -871,13 +879,13 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>133.87539000000001</v>
+        <v>21.428000000000001</v>
       </c>
       <c r="I8">
-        <v>-232.19</v>
+        <v>-102.742</v>
       </c>
       <c r="J8">
-        <v>287.238</v>
+        <v>-77.687799999999996</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -888,13 +896,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>145.45099999999999</v>
+        <v>-21.58531</v>
       </c>
       <c r="D9">
-        <v>-288.327</v>
+        <v>-102.3802</v>
       </c>
       <c r="E9">
-        <v>286.90600000000001</v>
+        <v>-63.372799999999998</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>17</v>
@@ -903,13 +911,13 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>119.559</v>
+        <v>20.088999999999999</v>
       </c>
       <c r="I9">
-        <v>-231.74</v>
+        <v>-97.22</v>
       </c>
       <c r="J9">
-        <v>284.14699999999999</v>
+        <v>-66.510000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -920,13 +928,13 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>124.624</v>
+        <v>-18.138999999999999</v>
       </c>
       <c r="D10">
-        <v>-287.27199999999999</v>
+        <v>-99.064400000000006</v>
       </c>
       <c r="E10">
-        <v>285.01299999999998</v>
+        <v>-53.866</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>15</v>
@@ -935,13 +943,13 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>103.9049</v>
+        <v>16.37</v>
       </c>
       <c r="I10">
-        <v>-234.21199999999999</v>
+        <v>-93.677499999999995</v>
       </c>
       <c r="J10">
-        <v>279.57189</v>
+        <v>-56.078000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -952,13 +960,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>174.77940000000001</v>
+        <v>-28.619700000000002</v>
       </c>
       <c r="D11">
-        <v>-282.65210000000002</v>
+        <v>-106.30500000000001</v>
       </c>
       <c r="E11">
-        <v>279.61660000000001</v>
+        <v>-102.437</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
@@ -967,13 +975,13 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>163.83670000000001</v>
+        <v>25.509</v>
       </c>
       <c r="I11">
-        <v>-232.16669999999999</v>
+        <v>-107.255</v>
       </c>
       <c r="J11">
-        <v>285.59620000000001</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -983,14 +991,14 @@
       <c r="B12" s="11">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
-        <v>174.77940000000001</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-282.65210000000002</v>
-      </c>
-      <c r="E12" s="15">
-        <v>279.61660000000001</v>
+      <c r="C12">
+        <v>-30.891400000000001</v>
+      </c>
+      <c r="D12">
+        <v>-111.1294</v>
+      </c>
+      <c r="E12">
+        <v>-92.308000000000007</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>39</v>
@@ -999,13 +1007,13 @@
         <v>6</v>
       </c>
       <c r="H12">
-        <v>148.23159999999999</v>
+        <v>26.463000000000001</v>
       </c>
       <c r="I12">
-        <v>-234.80950000000001</v>
+        <v>-106.167</v>
       </c>
       <c r="J12">
-        <v>288.47620000000001</v>
+        <v>-90.68</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1015,14 +1023,14 @@
       <c r="B13" s="12">
         <v>6</v>
       </c>
-      <c r="C13" s="15">
-        <v>174.77940000000001</v>
-      </c>
-      <c r="D13" s="15">
-        <v>-282.65210000000002</v>
-      </c>
-      <c r="E13" s="15">
-        <v>279.61660000000001</v>
+      <c r="C13">
+        <v>-32.569000000000003</v>
+      </c>
+      <c r="D13">
+        <v>-104.88</v>
+      </c>
+      <c r="E13">
+        <v>-76.235100000000003</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>16</v>
@@ -1031,13 +1039,13 @@
         <v>6</v>
       </c>
       <c r="H13">
-        <v>128.47290000000001</v>
+        <v>31.186</v>
       </c>
       <c r="I13">
-        <v>-231.3622</v>
+        <v>-104.782</v>
       </c>
       <c r="J13">
-        <v>285.64150000000001</v>
+        <v>-82.45</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1047,14 +1055,14 @@
       <c r="B14" s="13">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
-        <v>174.77940000000001</v>
-      </c>
-      <c r="D14" s="15">
-        <v>-282.65210000000002</v>
-      </c>
-      <c r="E14" s="15">
-        <v>279.61660000000001</v>
+      <c r="C14">
+        <v>-31.213180000000001</v>
+      </c>
+      <c r="D14">
+        <v>-95.727869999999996</v>
+      </c>
+      <c r="E14">
+        <v>-61.091999999999999</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>17</v>
@@ -1063,13 +1071,13 @@
         <v>6</v>
       </c>
       <c r="H14">
-        <v>107.82899</v>
+        <v>32.207000000000001</v>
       </c>
       <c r="I14">
-        <v>-230.41669999999999</v>
+        <v>-93.22</v>
       </c>
       <c r="J14">
-        <v>277.06259999999997</v>
+        <v>-69.221329999999995</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1079,14 +1087,14 @@
       <c r="B15" s="12">
         <v>6</v>
       </c>
-      <c r="C15" s="15">
-        <v>174.77940000000001</v>
-      </c>
-      <c r="D15" s="15">
-        <v>-282.65210000000002</v>
-      </c>
-      <c r="E15" s="15">
-        <v>279.61660000000001</v>
+      <c r="C15">
+        <v>-25.03</v>
+      </c>
+      <c r="D15">
+        <v>-87.25</v>
+      </c>
+      <c r="E15">
+        <v>-48.262999999999998</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>18</v>
@@ -1095,13 +1103,13 @@
         <v>6</v>
       </c>
       <c r="H15">
-        <v>91.575500000000005</v>
+        <v>33.090000000000003</v>
       </c>
       <c r="I15">
-        <v>-233.20769999999999</v>
+        <v>-85.59</v>
       </c>
       <c r="J15">
-        <v>271.45800000000003</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1112,13 +1120,13 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>174.77940000000001</v>
+        <v>-28.619700000000002</v>
       </c>
       <c r="D16">
-        <v>-282.65210000000002</v>
+        <v>-106.30500000000001</v>
       </c>
       <c r="E16">
-        <v>279.61660000000001</v>
+        <v>-102.437</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>14</v>
@@ -1127,13 +1135,13 @@
         <v>7</v>
       </c>
       <c r="H16">
-        <v>163.83670000000001</v>
+        <v>25.509</v>
       </c>
       <c r="I16">
-        <v>-232.16669999999999</v>
+        <v>-107.255</v>
       </c>
       <c r="J16">
-        <v>285.59620000000001</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1144,13 +1152,13 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>170.36170000000001</v>
+        <v>-33.624000000000002</v>
       </c>
       <c r="D17">
-        <v>-284.76229999999998</v>
+        <v>-107.29</v>
       </c>
       <c r="E17">
-        <v>288.08730000000003</v>
+        <v>-92.13</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>40</v>
@@ -1159,13 +1167,13 @@
         <v>7</v>
       </c>
       <c r="H17">
-        <v>148.23159999999999</v>
+        <v>28.857600000000001</v>
       </c>
       <c r="I17">
-        <v>-234.80950000000001</v>
+        <v>-105.8</v>
       </c>
       <c r="J17">
-        <v>288.47620000000001</v>
+        <v>-92.49</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1176,13 +1184,13 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>151.0179</v>
+        <v>-37.15</v>
       </c>
       <c r="D18">
-        <v>-293.11860000000001</v>
+        <v>-100.9</v>
       </c>
       <c r="E18">
-        <v>285.29680000000002</v>
+        <v>-82.695999999999998</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>16</v>
@@ -1191,13 +1199,13 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>128.94619</v>
+        <v>36.216000000000001</v>
       </c>
       <c r="I18">
-        <v>-229.35489999999999</v>
+        <v>-97.602000000000004</v>
       </c>
       <c r="J18">
-        <v>281.04059999999998</v>
+        <v>-84.51</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1208,13 +1216,13 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>135.08099999999999</v>
+        <v>-40.369999999999997</v>
       </c>
       <c r="D19">
-        <v>-296.35000000000002</v>
+        <v>-92.48</v>
       </c>
       <c r="E19">
-        <v>279.90699999999998</v>
+        <v>-69.945999999999998</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>17</v>
@@ -1223,13 +1231,13 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <v>114.47349</v>
+        <v>43.62</v>
       </c>
       <c r="I19">
-        <v>-228.23869999999999</v>
+        <v>-83.99</v>
       </c>
       <c r="J19">
-        <v>269.61290000000002</v>
+        <v>-71.569999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1240,13 +1248,13 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>117.9187</v>
+        <v>-48.154000000000003</v>
       </c>
       <c r="D20">
-        <v>-298.91699999999997</v>
+        <v>-73.799000000000007</v>
       </c>
       <c r="E20">
-        <v>270.02260000000001</v>
+        <v>-58.612499999999997</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>19</v>
@@ -1255,13 +1263,13 @@
         <v>7</v>
       </c>
       <c r="H20">
-        <v>102.55329999999999</v>
+        <v>50.1</v>
       </c>
       <c r="I20">
-        <v>-226.6934</v>
+        <v>-54.9</v>
       </c>
       <c r="J20">
-        <v>258.54820000000001</v>
+        <v>-61.51</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1271,29 +1279,11 @@
       <c r="B21" s="4">
         <v>8</v>
       </c>
-      <c r="C21">
-        <v>196.06059999999999</v>
-      </c>
-      <c r="D21">
-        <v>-301.21449999999999</v>
-      </c>
-      <c r="E21">
-        <v>258.0521</v>
-      </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="4">
         <v>8</v>
-      </c>
-      <c r="H21">
-        <v>163.30090000000001</v>
-      </c>
-      <c r="I21">
-        <v>-200.44739999999999</v>
-      </c>
-      <c r="J21">
-        <v>270.15429999999998</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1303,29 +1293,11 @@
       <c r="B22" s="7">
         <v>8</v>
       </c>
-      <c r="C22">
-        <v>177.72450000000001</v>
-      </c>
-      <c r="D22">
-        <v>-290.42950000000002</v>
-      </c>
-      <c r="E22">
-        <v>281.82010000000002</v>
-      </c>
       <c r="F22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="7">
         <v>8</v>
-      </c>
-      <c r="H22">
-        <v>161.47239999999999</v>
-      </c>
-      <c r="I22">
-        <v>-224.99100000000001</v>
-      </c>
-      <c r="J22">
-        <v>289.53030000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1335,29 +1307,11 @@
       <c r="B23" s="4">
         <v>8</v>
       </c>
-      <c r="C23">
-        <v>175.21889999999999</v>
-      </c>
-      <c r="D23">
-        <v>-265.49880000000002</v>
-      </c>
-      <c r="E23">
-        <v>286.32080000000002</v>
-      </c>
       <c r="F23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="4">
         <v>8</v>
-      </c>
-      <c r="H23">
-        <v>173.3537</v>
-      </c>
-      <c r="I23">
-        <v>-246.48429999999999</v>
-      </c>
-      <c r="J23">
-        <v>293.11579999999998</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1367,29 +1321,11 @@
       <c r="B24" s="4">
         <v>8</v>
       </c>
-      <c r="C24">
-        <v>161.80699999999999</v>
-      </c>
-      <c r="D24">
-        <v>-268.88139999999999</v>
-      </c>
-      <c r="E24">
-        <v>290.74079999999998</v>
-      </c>
       <c r="F24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="4">
         <v>8</v>
-      </c>
-      <c r="H24">
-        <v>160.6353</v>
-      </c>
-      <c r="I24">
-        <v>-250.87870000000001</v>
-      </c>
-      <c r="J24">
-        <v>291.62880000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1399,29 +1335,11 @@
       <c r="B25" s="7">
         <v>8</v>
       </c>
-      <c r="C25">
-        <v>167.79990000000001</v>
-      </c>
-      <c r="D25">
-        <v>-292.5403</v>
-      </c>
-      <c r="E25">
-        <v>283.71559999999999</v>
-      </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="7">
         <v>8</v>
-      </c>
-      <c r="H25">
-        <v>148.71019999999999</v>
-      </c>
-      <c r="I25">
-        <v>-229.17429999999999</v>
-      </c>
-      <c r="J25">
-        <v>286.08929999999998</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1431,29 +1349,11 @@
       <c r="B26" s="4">
         <v>8</v>
       </c>
-      <c r="C26">
-        <v>186.9117</v>
-      </c>
-      <c r="D26">
-        <v>-306.04770000000002</v>
-      </c>
-      <c r="E26">
-        <v>256.91149999999999</v>
-      </c>
       <c r="F26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="4">
         <v>8</v>
-      </c>
-      <c r="H26">
-        <v>156.4256</v>
-      </c>
-      <c r="I26">
-        <v>-200.99199999999999</v>
-      </c>
-      <c r="J26">
-        <v>267.17610000000002</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1463,29 +1363,11 @@
       <c r="B27" s="8">
         <v>9</v>
       </c>
-      <c r="C27">
-        <v>170.36170000000001</v>
-      </c>
-      <c r="D27">
-        <v>-284.76229999999998</v>
-      </c>
-      <c r="E27">
-        <v>288.08730000000003</v>
-      </c>
       <c r="F27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="8">
         <v>9</v>
-      </c>
-      <c r="H27">
-        <v>148.23159999999999</v>
-      </c>
-      <c r="I27">
-        <v>-234.80950000000001</v>
-      </c>
-      <c r="J27">
-        <v>288.47620000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1523,29 +1405,11 @@
       <c r="B30" s="6">
         <v>10</v>
       </c>
-      <c r="C30">
-        <v>165.0498</v>
-      </c>
-      <c r="D30">
-        <v>-272.8965</v>
-      </c>
-      <c r="E30">
-        <v>291.2731</v>
-      </c>
       <c r="F30" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G30" s="6">
         <v>10</v>
-      </c>
-      <c r="H30">
-        <v>167.34829999999999</v>
-      </c>
-      <c r="I30">
-        <v>-253.10409999999999</v>
-      </c>
-      <c r="J30">
-        <v>294.28680000000003</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1555,29 +1419,11 @@
       <c r="B31" s="9">
         <v>10</v>
       </c>
-      <c r="C31">
-        <v>139.6172</v>
-      </c>
-      <c r="D31">
-        <v>-276.15179999999998</v>
-      </c>
-      <c r="E31">
-        <v>287.20490000000001</v>
-      </c>
       <c r="F31" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="9">
         <v>10</v>
-      </c>
-      <c r="H31">
-        <v>147.3732</v>
-      </c>
-      <c r="I31">
-        <v>-262.43869999999998</v>
-      </c>
-      <c r="J31">
-        <v>287.45999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1587,221 +1433,95 @@
       <c r="B32" s="9">
         <v>10</v>
       </c>
-      <c r="C32">
-        <v>115.36920000000001</v>
-      </c>
-      <c r="D32">
-        <v>-280.68630000000002</v>
-      </c>
-      <c r="E32">
-        <v>280.03109999999998</v>
-      </c>
       <c r="F32" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G32" s="9">
         <v>10</v>
       </c>
-      <c r="H32">
-        <v>126.12260000000001</v>
-      </c>
-      <c r="I32">
-        <v>-267.48570000000001</v>
-      </c>
-      <c r="J32">
-        <v>282.45479999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="9">
         <v>10</v>
       </c>
-      <c r="C33">
-        <v>116.8325</v>
-      </c>
-      <c r="D33">
-        <v>-296.78440000000001</v>
-      </c>
-      <c r="E33">
-        <v>273.41390000000001</v>
-      </c>
       <c r="F33" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="9">
         <v>10</v>
       </c>
-      <c r="H33">
-        <v>112.6028</v>
-      </c>
-      <c r="I33">
-        <v>-254.50110000000001</v>
-      </c>
-      <c r="J33">
-        <v>273.91550000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="9">
         <v>10</v>
       </c>
-      <c r="C34">
-        <v>121.38800000000001</v>
-      </c>
-      <c r="D34">
-        <v>-311.63049999999998</v>
-      </c>
-      <c r="E34">
-        <v>263.35129999999998</v>
-      </c>
       <c r="F34" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="9">
         <v>10</v>
       </c>
-      <c r="H34">
-        <v>104.5013</v>
-      </c>
-      <c r="I34">
-        <v>-241.54349999999999</v>
-      </c>
-      <c r="J34">
-        <v>262.03500000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="9">
         <v>10</v>
       </c>
-      <c r="C35">
-        <v>133.03120000000001</v>
-      </c>
-      <c r="D35">
-        <v>-321.44889999999998</v>
-      </c>
-      <c r="E35">
-        <v>252.92150000000001</v>
-      </c>
       <c r="F35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="9">
         <v>10</v>
       </c>
-      <c r="H35">
-        <v>104.5321</v>
-      </c>
-      <c r="I35">
-        <v>-227.31299999999999</v>
-      </c>
-      <c r="J35">
-        <v>251.7183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="6">
         <v>10</v>
       </c>
-      <c r="C36">
-        <v>139.91650000000001</v>
-      </c>
-      <c r="D36">
-        <v>-327.64800000000002</v>
-      </c>
-      <c r="E36">
-        <v>248.00120000000001</v>
-      </c>
       <c r="F36" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="6">
         <v>10</v>
       </c>
-      <c r="H36">
-        <v>104.77330000000001</v>
-      </c>
-      <c r="I36">
-        <v>-222.06559999999999</v>
-      </c>
-      <c r="J36">
-        <v>247.57400000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="9">
         <v>10</v>
       </c>
-      <c r="C37">
-        <v>159.1044</v>
-      </c>
-      <c r="D37">
-        <v>-317.8612</v>
-      </c>
-      <c r="E37">
-        <v>260.262</v>
-      </c>
       <c r="F37" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G37" s="9">
         <v>10</v>
       </c>
-      <c r="H37">
-        <v>125.5624</v>
-      </c>
-      <c r="I37">
-        <v>-213.1217</v>
-      </c>
-      <c r="J37">
-        <v>255.57560000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="6">
         <v>10</v>
       </c>
-      <c r="C38">
-        <v>179.19829999999999</v>
-      </c>
-      <c r="D38">
-        <v>-305.89800000000002</v>
-      </c>
-      <c r="E38">
-        <v>266.81959999999998</v>
-      </c>
       <c r="F38" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G38" s="6">
         <v>10</v>
-      </c>
-      <c r="H38">
-        <v>153.55359999999999</v>
-      </c>
-      <c r="I38">
-        <v>-206.2458</v>
-      </c>
-      <c r="J38">
-        <v>272.31700000000001</v>
       </c>
     </row>
   </sheetData>
